--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arc/Research/PhD/Projects/supy-res-imaging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52977303-BF70-9E45-A3CF-01C43784D61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65123339-4F34-BF49-A6B3-E250D1B2595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="44800" windowHeight="24700" xr2:uid="{BFB4648C-04C2-8441-A657-02EBE8D5E21E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" activeTab="1" xr2:uid="{BFB4648C-04C2-8441-A657-02EBE8D5E21E}"/>
   </bookViews>
   <sheets>
     <sheet name="Decimation Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Sharpening Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>High-res image dim</t>
   </si>
@@ -47,6 +48,15 @@
   </si>
   <si>
     <t>D matrix height</t>
+  </si>
+  <si>
+    <t>Matrix Dim</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -321,7 +331,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -644,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA45D9A-981D-214F-9028-128C4FDDE46C}">
   <dimension ref="A1:BV35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:T13"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4578,7 +4598,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4595,4 +4615,593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2BDF2-F335-BB46-BAC5-D1F6DABDF64C}">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="20" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <f>E2+1</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <f t="shared" ref="G2:T2" si="0">F2+1</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I2" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K2" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M2" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N2" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O2" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P2" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q2" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R2" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S2" s="10">
+        <f>R2+1</f>
+        <v>14</v>
+      </c>
+      <c r="T2" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D4" s="10">
+        <f>D3+1</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D5" s="10">
+        <f t="shared" ref="D5:D18" si="1">D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D6" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D7" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D8" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D9" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D10" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D11" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D12" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D14" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D16" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" s="10"/>
+      <c r="E20">
+        <v>-2</v>
+      </c>
+      <c r="F20">
+        <f>E20+1</f>
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:J20" si="2">F20+1</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>-2</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>D21+1</f>
+        <v>-1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" ref="D23:D26" si="3">D22+1</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="4:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/matrices.xlsx
+++ b/matrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arc/Research/PhD/Projects/supy-res-imaging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65123339-4F34-BF49-A6B3-E250D1B2595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819B09EA-753F-C549-BEE8-34F731DFE2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" activeTab="1" xr2:uid="{BFB4648C-04C2-8441-A657-02EBE8D5E21E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>High-res image dim</t>
   </si>
@@ -50,20 +50,35 @@
     <t>D matrix height</t>
   </si>
   <si>
-    <t>Matrix Dim</t>
+    <t>Image Dim</t>
   </si>
   <si>
-    <t>x</t>
+    <t>4x4</t>
   </si>
   <si>
-    <t>o</t>
+    <t>Kernel Dim</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>Padded Image Dim</t>
+  </si>
+  <si>
+    <t>6x6</t>
+  </si>
+  <si>
+    <t>S Matrix Dim</t>
+  </si>
+  <si>
+    <t>36x36?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,8 +86,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -268,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -327,21 +356,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4598,7 +4657,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4619,589 +4678,4719 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2BDF2-F335-BB46-BAC5-D1F6DABDF64C}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="4" max="40" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
         <v>4</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="54">
+        <v>0</v>
+      </c>
+      <c r="F2" s="54">
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="G2" s="10">
-        <f t="shared" ref="G2:T2" si="0">F2+1</f>
+      <c r="G2" s="54">
+        <f t="shared" ref="G2:J2" si="0">F2+1</f>
         <v>2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K2" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L2" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M2" s="10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N2" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O2" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P2" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Q2" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="R2" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S2" s="10">
-        <f>R2+1</f>
-        <v>14</v>
-      </c>
-      <c r="T2" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D4" s="10">
-        <f>D3+1</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D5" s="10">
-        <f t="shared" ref="D5:D18" si="1">D4+1</f>
+      <c r="M2" s="55"/>
+      <c r="N2" s="54">
+        <v>0</v>
+      </c>
+      <c r="O2" s="54">
+        <f>N2+1</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="54">
+        <f t="shared" ref="P2:S2" si="1">O2+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D6" s="10">
+      <c r="Q2" s="54">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D7" s="10">
+      <c r="R2" s="54">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D8" s="10">
+      <c r="S2" s="54">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D9" s="10">
-        <f t="shared" si="1"/>
+    <row r="3" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0</v>
+      </c>
+      <c r="F3" s="57">
+        <v>0</v>
+      </c>
+      <c r="G3" s="57">
+        <v>0</v>
+      </c>
+      <c r="H3" s="57">
+        <v>0</v>
+      </c>
+      <c r="I3" s="57">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0</v>
+      </c>
+      <c r="M3" s="54">
+        <v>0</v>
+      </c>
+      <c r="N3" s="56">
+        <v>0</v>
+      </c>
+      <c r="O3" s="57">
+        <v>0</v>
+      </c>
+      <c r="P3" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="57">
+        <v>0</v>
+      </c>
+      <c r="R3" s="57">
+        <v>0</v>
+      </c>
+      <c r="S3" s="58">
+        <v>0</v>
+      </c>
+      <c r="T3" s="64">
+        <v>0</v>
+      </c>
+      <c r="U3" s="64">
+        <v>0</v>
+      </c>
+      <c r="V3" s="64">
+        <v>0</v>
+      </c>
+      <c r="W3" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="54">
+        <f>D3+1</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="M4" s="54">
+        <f>M3+1</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="59">
+        <v>0</v>
+      </c>
+      <c r="O4" s="67">
+        <v>1</v>
+      </c>
+      <c r="P4" s="67">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>3</v>
+      </c>
+      <c r="R4" s="67">
+        <v>4</v>
+      </c>
+      <c r="S4" s="67">
+        <v>5</v>
+      </c>
+      <c r="T4" s="67">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="6"/>
+      <c r="U4" s="67">
+        <v>7</v>
+      </c>
+      <c r="V4" s="67">
+        <v>8</v>
+      </c>
+      <c r="W4" s="67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D10" s="10">
-        <f t="shared" si="1"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D5" s="54">
+        <f t="shared" ref="D5:D7" si="2">D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="6"/>
+      <c r="I5" s="10">
+        <v>8</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
+      <c r="M5" s="54">
+        <f t="shared" ref="M5:M7" si="3">M4+1</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="59">
+        <v>0</v>
+      </c>
+      <c r="O5" s="67">
+        <v>9</v>
+      </c>
+      <c r="P5" s="67">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="67">
+        <v>11</v>
+      </c>
+      <c r="R5" s="67">
+        <v>12</v>
+      </c>
+      <c r="S5" s="67">
+        <v>13</v>
+      </c>
+      <c r="T5" s="67">
+        <v>14</v>
+      </c>
+      <c r="U5" s="67">
+        <v>15</v>
+      </c>
+      <c r="V5" s="67">
+        <v>16</v>
+      </c>
+      <c r="W5" s="67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D11" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D12" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D13" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D14" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D15" s="10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D16" s="10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D17" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D20" s="10"/>
-      <c r="E20">
-        <v>-2</v>
-      </c>
-      <c r="F20">
-        <f>E20+1</f>
-        <v>-1</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:J20" si="2">F20+1</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J20">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D6" s="54">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <v>-2</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <f>D21+1</f>
-        <v>-1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <f t="shared" ref="D23:D26" si="3">D22+1</f>
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="4:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="E6" s="59">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10">
+        <v>12</v>
+      </c>
+      <c r="J6" s="63">
+        <v>0</v>
+      </c>
+      <c r="M6" s="54">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="N6" s="59">
+        <v>0</v>
+      </c>
+      <c r="O6" s="67">
+        <v>17</v>
+      </c>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="4:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D7" s="54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10">
+        <v>16</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0</v>
+      </c>
+      <c r="M7" s="54">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="59">
+        <v>0</v>
+      </c>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="54">
+        <f>D7+1</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0</v>
+      </c>
+      <c r="G8" s="61">
+        <v>0</v>
+      </c>
+      <c r="H8" s="61">
+        <v>0</v>
+      </c>
+      <c r="I8" s="61">
+        <v>0</v>
+      </c>
+      <c r="J8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="54">
+        <f>M7+1</f>
+        <v>5</v>
+      </c>
+      <c r="N8" s="60">
+        <v>0</v>
+      </c>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="54">
+        <f t="shared" ref="M9:M12" si="4">M8+1</f>
+        <v>6</v>
+      </c>
+      <c r="N9" s="59">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M10" s="54">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="59">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M11" s="54">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="59">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M12" s="54">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="N12" s="59">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M13" s="54"/>
+    </row>
+    <row r="18" spans="4:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="65">
+        <v>0</v>
+      </c>
+      <c r="F18" s="66">
+        <f>E18+1</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="66">
+        <f t="shared" ref="G18:AN18" si="5">F18+1</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="66">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="66">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="66">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="66">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="66">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M18" s="66">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="66">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O18" s="66">
+        <f>N18+1</f>
+        <v>10</v>
+      </c>
+      <c r="P18" s="66">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="Q18" s="66">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="R18" s="66">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="S18" s="66">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="T18" s="66">
+        <f>S18+1</f>
+        <v>15</v>
+      </c>
+      <c r="U18" s="66">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="V18" s="66">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="W18" s="66">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="X18" s="66">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="Y18" s="66">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Z18" s="66">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AA18" s="66">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AB18" s="66">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="AC18" s="66">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="AD18" s="66">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AE18" s="66">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="AF18" s="66">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="AG18" s="66">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AH18" s="66">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="AI18" s="66">
+        <f>AH18+1</f>
+        <v>30</v>
+      </c>
+      <c r="AJ18" s="66">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AK18" s="66">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AL18" s="66">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AM18" s="66">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="AN18" s="66">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="54">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D20" s="54">
+        <f>D19+1</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D21" s="54">
+        <f>D20+1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D22" s="54">
+        <f>D21+1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11">
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D23" s="54">
+        <f>D22+1</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D24" s="54">
+        <f>D23+1</f>
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <v>0</v>
+      </c>
+      <c r="U24" s="11">
+        <v>0</v>
+      </c>
+      <c r="V24" s="11">
+        <v>0</v>
+      </c>
+      <c r="W24" s="11">
+        <v>0</v>
+      </c>
+      <c r="X24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D25" s="54">
+        <f>D24+1</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+      <c r="X25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D26" s="54">
+        <f>D25+1</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0</v>
+      </c>
+      <c r="U26" s="11">
+        <v>0</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0</v>
+      </c>
+      <c r="W26" s="11">
+        <v>0</v>
+      </c>
+      <c r="X26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D27" s="54">
+        <f t="shared" ref="D22:D53" si="6">D26+1</f>
+        <v>8</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+      <c r="X27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D28" s="54">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="R28" s="11">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="11">
+        <v>0</v>
+      </c>
+      <c r="W28" s="11">
+        <v>0</v>
+      </c>
+      <c r="X28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D29" s="54">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D30" s="54">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D31" s="54">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
+        <v>0</v>
+      </c>
+      <c r="U31" s="11">
+        <v>0</v>
+      </c>
+      <c r="V31" s="11">
+        <v>0</v>
+      </c>
+      <c r="W31" s="11">
+        <v>0</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D32" s="54">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>1</v>
+      </c>
+      <c r="R32" s="11">
+        <v>1</v>
+      </c>
+      <c r="S32" s="11">
+        <v>1</v>
+      </c>
+      <c r="T32" s="11">
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
+        <v>0</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0</v>
+      </c>
+      <c r="W32" s="11">
+        <v>1</v>
+      </c>
+      <c r="X32" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D33" s="54">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>1</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1</v>
+      </c>
+      <c r="T33" s="11">
+        <v>1</v>
+      </c>
+      <c r="U33" s="11">
+        <v>0</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0</v>
+      </c>
+      <c r="W33" s="11">
+        <v>0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D34" s="54">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1</v>
+      </c>
+      <c r="N34" s="11">
+        <v>1</v>
+      </c>
+      <c r="O34" s="11">
+        <v>1</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34" s="11">
+        <v>1</v>
+      </c>
+      <c r="T34" s="11">
+        <v>1</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0</v>
+      </c>
+      <c r="W34" s="11">
+        <v>0</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D35" s="54">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1</v>
+      </c>
+      <c r="O35" s="11">
+        <v>1</v>
+      </c>
+      <c r="P35" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0</v>
+      </c>
+      <c r="R35" s="11">
+        <v>0</v>
+      </c>
+      <c r="S35" s="11">
+        <v>0</v>
+      </c>
+      <c r="T35" s="11">
+        <v>1</v>
+      </c>
+      <c r="U35" s="11">
+        <v>1</v>
+      </c>
+      <c r="V35" s="11">
+        <v>1</v>
+      </c>
+      <c r="W35" s="11">
+        <v>0</v>
+      </c>
+      <c r="X35" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D36" s="54">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+      <c r="X36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D37" s="54">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0</v>
+      </c>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D38" s="54">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D39" s="54">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="11">
+        <v>0</v>
+      </c>
+      <c r="V39" s="11">
+        <v>0</v>
+      </c>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D40" s="54">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D41" s="54">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0</v>
+      </c>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>0</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D42" s="54">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D43" s="54">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>0</v>
+      </c>
+      <c r="R43" s="11">
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>0</v>
+      </c>
+      <c r="V43" s="11">
+        <v>0</v>
+      </c>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D44" s="54">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D45" s="54">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>0</v>
+      </c>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D46" s="54">
+        <f>D45+1</f>
+        <v>27</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D47" s="54">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0</v>
+      </c>
+      <c r="T47" s="11">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>0</v>
+      </c>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D48" s="54">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D49" s="54">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+      <c r="O49" s="11">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0</v>
+      </c>
+      <c r="R49" s="11">
+        <v>0</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0</v>
+      </c>
+      <c r="T49" s="11">
+        <v>0</v>
+      </c>
+      <c r="U49" s="11">
+        <v>0</v>
+      </c>
+      <c r="V49" s="11">
+        <v>0</v>
+      </c>
+      <c r="W49" s="11">
+        <v>0</v>
+      </c>
+      <c r="X49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D50" s="54">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>0</v>
+      </c>
+      <c r="R50" s="11">
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0</v>
+      </c>
+      <c r="T50" s="11">
+        <v>0</v>
+      </c>
+      <c r="U50" s="11">
+        <v>0</v>
+      </c>
+      <c r="V50" s="11">
+        <v>0</v>
+      </c>
+      <c r="W50" s="11">
+        <v>0</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D51" s="54">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>0</v>
+      </c>
+      <c r="R51" s="11">
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0</v>
+      </c>
+      <c r="U51" s="11">
+        <v>0</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0</v>
+      </c>
+      <c r="W51" s="11">
+        <v>0</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D52" s="54">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <v>0</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0</v>
+      </c>
+      <c r="U52" s="11">
+        <v>0</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0</v>
+      </c>
+      <c r="W52" s="11">
+        <v>0</v>
+      </c>
+      <c r="X52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D53" s="54">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <v>0</v>
+      </c>
+      <c r="S53" s="11">
+        <v>0</v>
+      </c>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>0</v>
+      </c>
+      <c r="V53" s="11">
+        <v>0</v>
+      </c>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:40" x14ac:dyDescent="0.2">
+      <c r="D54" s="54">
+        <f>D53+1</f>
+        <v>35</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>0</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E19:AN54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>